--- a/Work/テスト仕様書/テスト仕様書(ねこまっち).xlsx
+++ b/Work/テスト仕様書/テスト仕様書(ねこまっち).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-4FPHGIN.000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-4FPHGIN.000\Desktop\otherData\pepe_other_file\Work\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFFE2F1-8E64-49A1-87D5-A19B841A6733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1EBFF5-9B45-4D83-82D3-D366454E27F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1605" yWindow="0" windowWidth="10275" windowHeight="10920" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="132">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -812,25 +812,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>myPage.jsp
-画面表示チェック</t>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>registUser.jspに移動できること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>myPage.jspに移動できること</t>
-    <rPh sb="11" eb="13">
-      <t>イドウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -906,30 +888,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１.index.jspのラジオボタンで検索条件を選択する。
-「まっちんぐ」ボタンをクリックする</t>
-    <rPh sb="19" eb="23">
-      <t>ケンサクジョウケン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.catLists.jsp内のネコの情報をクリック</t>
     <rPh sb="14" eb="15">
       <t>ナイ</t>
     </rPh>
     <rPh sb="19" eb="21">
       <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.showCatInfo.jspの「メッセージを送る」をクリック</t>
-    <rPh sb="25" eb="26">
-      <t>オク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1174,34 +1138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.mypage.jspから「ネコ情報を登録する」をクリックし、registCat.jspへ遷移するか</t>
-    <rPh sb="17" eb="19">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>registCat.jspに移動できること</t>
-    <rPh sb="14" eb="16">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>returnMessage.jsp
-画面表示チェック</t>
-    <rPh sb="18" eb="22">
-      <t>ガメンヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.mypage.jspから「返信」をクリック</t>
     <rPh sb="15" eb="17">
       <t>ヘンシン</t>
@@ -1209,19 +1145,213 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.returnMessage.jspに移動できること
-2.取得してきたメッセージ情報が表示されていること</t>
+    <t>mypage.jsp
+画面表示チェック</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypage.jspに移動できること</t>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１.index.jspの「性別」を選択するラジオボタンで検索条件を選択する。
+「まっちんぐ」ボタンをクリックする</t>
+    <rPh sb="13" eb="15">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.jsp
+　遷移表示チェック</t>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネコのIDで検索しshowCatInfo.jspに遷移できるか</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.jspの「IDまっち」でネコのIDを入力し「まっちんぐ」ボタンをクリック</t>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.対象のIDを持つネコの情報がshowCatInfo.jspで表示されている</t>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registCat.jspに移動できる</t>
+    <rPh sb="14" eb="16">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.取得してきたメッセージ情報が表示されている</t>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.mypage.jspから「ネコ情報を登録する」をクリック</t>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
     <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.index.jspに移動すること</t>
+    <rPh sb="12" eb="14">
       <t>イドウ</t>
     </rPh>
-    <rPh sb="30" eb="32">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.jsp
+画面遷移チェック</t>
+    <rPh sb="10" eb="14">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.jsp内の「新規登録はこちら」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message.jsp
+返信ボタンチェック</t>
+    <rPh sb="12" eb="14">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ページ
+画面遷移チェック</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypage.jsp
+画面遷移チェック</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ページの上部にあるロゴをクリック</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.mypage.jsp内の受信メッセージ、送信メッセージをクリック
+2.受信メッセージでは受信したメッセージと「ねこ詳細</t>
+    <rPh sb="12" eb="13">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.showCatInfo.jspの「メッセージを送る」をクリック
+2.mypage.jspの受信メッセージから「返信」ボタンをクリック</t>
+    <rPh sb="25" eb="26">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヘンシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1737,8 +1867,8 @@
   </sheetPr>
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1817,7 +1947,7 @@
         <v>75</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>69</v>
@@ -1840,10 +1970,10 @@
         <v>75</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>66</v>
@@ -1857,16 +1987,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>75</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>66</v>
@@ -1880,13 +2010,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>74</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>70</v>
@@ -1898,21 +2028,21 @@
       <c r="I7" s="12"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="2:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B8" s="7">
         <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>75</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>66</v>
@@ -1932,10 +2062,10 @@
         <v>75</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>66</v>
@@ -1944,7 +2074,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B10" s="7">
         <v>8</v>
       </c>
@@ -1955,10 +2085,10 @@
         <v>75</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>66</v>
@@ -1972,16 +2102,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>75</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>66</v>
@@ -1995,16 +2125,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>75</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>66</v>
@@ -2018,16 +2148,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>75</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>66</v>
@@ -2041,16 +2171,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>75</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>66</v>
@@ -2064,16 +2194,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>66</v>
@@ -2126,94 +2256,122 @@
       <c r="I17" s="12"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="54" x14ac:dyDescent="0.15">
       <c r="B18" s="7">
         <v>16</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="G18" s="10"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B19" s="7">
         <v>17</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B20" s="7">
         <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>75</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="7">
         <v>19</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="F22" s="11"/>
       <c r="G22" s="10"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B23" s="7">
         <v>21</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="10"/>
       <c r="H23" s="12"/>

--- a/Work/テスト仕様書/テスト仕様書(ねこまっち).xlsx
+++ b/Work/テスト仕様書/テスト仕様書(ねこまっち).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-4FPHGIN.000\Desktop\otherData\pepe_other_file\Work\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1EBFF5-9B45-4D83-82D3-D366454E27F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B522588-B652-4213-8173-59E57CA54CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1605" yWindow="0" windowWidth="10275" windowHeight="10920" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="133">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -1319,29 +1319,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.mypage.jsp内の受信メッセージ、送信メッセージをクリック
-2.受信メッセージでは受信したメッセージと「ねこ詳細</t>
-    <rPh sb="12" eb="13">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.showCatInfo.jspの「メッセージを送る」をクリック
 2.mypage.jspの受信メッセージから「返信」ボタンをクリック</t>
     <rPh sb="25" eb="26">
@@ -1352,6 +1329,36 @@
     </rPh>
     <rPh sb="57" eb="59">
       <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.registUser.jspに移動すること</t>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.mypage.jsp内の受信メッセージ、送信メッセージをクリック
+2.受信メッセージでは受信したメッセージと「ねこ詳細」を</t>
+    <rPh sb="12" eb="13">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1867,7 +1874,7 @@
   </sheetPr>
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2085,7 +2092,7 @@
         <v>75</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>90</v>
@@ -2353,13 +2360,15 @@
       <c r="E22" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="81" x14ac:dyDescent="0.15">
       <c r="B23" s="7">
         <v>21</v>
       </c>
@@ -2370,7 +2379,7 @@
         <v>108</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="10"/>

--- a/Work/テスト仕様書/テスト仕様書(ねこまっち).xlsx
+++ b/Work/テスト仕様書/テスト仕様書(ねこまっち).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-4FPHGIN.000\Desktop\otherData\pepe_other_file\Work\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B522588-B652-4213-8173-59E57CA54CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816EE60E-A0C8-479C-9C0F-050F35F0D697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="141">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -664,13 +664,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>registUser.jspに移動できること</t>
-    <rPh sb="15" eb="17">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・2023/9/</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -747,17 +740,6 @@
     <t>1.ドロップダウンメニューから「マイページ」、「ログアウト」を押下</t>
     <rPh sb="31" eb="33">
       <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.myPage.jspに移動できること
-2.compLogout.jspに移動できること</t>
-    <rPh sb="13" eb="15">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -816,17 +798,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>compLogout.jsp
-画面表示チェック</t>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>catLists.jsp
 画面表示チェック</t>
     <rPh sb="13" eb="17">
@@ -872,29 +843,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.index.jspのドロップダウンメニューから「ログイン」をクリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.index.jspのドロップダウンメニューから「新規登録」をクリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>１.index.jspのドロップダウンメニューから「マイページ」をクリック</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1.index.jspのドロップダウンメニューから「ログアウト」をクリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.catLists.jsp内のネコの情報をクリック</t>
-    <rPh sb="14" eb="15">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウホウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1180,27 +1133,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>index.jsp
-　遷移表示チェック</t>
-    <rPh sb="11" eb="13">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネコのIDで検索しshowCatInfo.jspに遷移できるか</t>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>index.jspの「IDまっち」でネコのIDを入力し「まっちんぐ」ボタンをクリック</t>
     <rPh sb="24" eb="26">
       <t>ニュウリョク</t>
@@ -1208,22 +1140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.対象のIDを持つネコの情報がshowCatInfo.jspで表示されている</t>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>registCat.jspに移動できる</t>
     <rPh sb="14" eb="16">
       <t>イドウ</t>
@@ -1257,24 +1173,6 @@
     <t>1.index.jspに移動すること</t>
     <rPh sb="12" eb="14">
       <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Login.jsp
-画面遷移チェック</t>
-    <rPh sb="10" eb="14">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Login.jsp内の「新規登録はこちら」をクリック</t>
-    <rPh sb="9" eb="10">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>シンキトウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1298,17 +1196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mypage.jsp
-画面遷移チェック</t>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全ページの上部にあるロゴをクリック</t>
     <rPh sb="0" eb="1">
       <t>ゼン</t>
@@ -1333,15 +1220,107 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.registUser.jspに移動すること</t>
-    <rPh sb="17" eb="19">
+    <t>1.catLists.jsp内のネコの情報をクリック
+2.mypage.jspの「ネコ詳細」をクリック
+3.index.jspの「IDまっちんぐ」内のテキストボックスに検索したいIDを入力後「まっちんぐ」をクリック</t>
+    <rPh sb="14" eb="15">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="92" eb="95">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout.html
+画面表示チェック</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.index.jspのドロップダウンメニューから「ログイン」をクリック
+2.registUser.jsp内の「ログインはこちら」をクリック</t>
+    <rPh sb="53" eb="54">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.index.jspのドロップダウンメニューから「新規登録」をクリック
+2.Login.jsp内の「新規登録はこちら」をクリック</t>
+    <rPh sb="48" eb="49">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout.htmlに移動できること</t>
+    <rPh sb="12" eb="14">
       <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>1.mypage.jspに移動できること
+2.logout.htmlに移動できること</t>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.受信メッセージ欄、送信メッセージ欄のそれぞれ必要な内容が表示されている</t>
+    <rPh sb="2" eb="4">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>1.mypage.jsp内の受信メッセージ、送信メッセージをクリック
-2.受信メッセージでは受信したメッセージと「ねこ詳細」を</t>
+2.受信メッセージでは受信したメッセージと「ねこ詳細」と「返信する」のボタンがある
+3.送信メッセージでは送信したメッセージと「ネコ詳細」と「削除する」のボタンがある
+4.受信メッセージ、送信メッセージに情報が無ければメッセージはありませんと表示されている</t>
     <rPh sb="12" eb="13">
       <t>ナイ</t>
     </rPh>
@@ -1359,6 +1338,212 @@
     </rPh>
     <rPh sb="59" eb="61">
       <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypage.jsp
+動作確認</t>
+    <rPh sb="11" eb="15">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.jsp
+エラーメッセージチェック</t>
+    <rPh sb="1" eb="5">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示確認</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.jspでログイン処理を行った際にエラーが発生した場合、Login.jspに戻り、エラーメッセージを表示させる</t>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.Login.jspでエラーメッセージを表示される</t>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registUser.jsp
+エラーメッセージチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.registUser.jspでエラーメッセージが表示される</t>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registUser.jspでユーザー登録処理を行った際にエラーが発生した場合、registUser.jspに戻り、エラーメッセージを表示させる</t>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.jsp
+　エラーメッセージチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示チェック</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.対象のIDを持つネコの情報が存在しない、または削除されている場合はエラーメッセージを表示する</t>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registCat.jsp
+エラーメッセージチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.registCat.jspで必要情報を入力する
+2.一部想定されている内容と違う内容を入力</t>
+    <rPh sb="16" eb="20">
+      <t>ヒツヨウジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.registCat.jspに戻り、エラーメッセージを表示する</t>
+    <rPh sb="16" eb="17">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1803,7 +1988,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
@@ -1874,8 +2059,8 @@
   </sheetPr>
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="C24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1943,18 +2128,18 @@
       <c r="I3" s="12"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>69</v>
@@ -1966,21 +2151,21 @@
       <c r="I4" s="12"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B5" s="7">
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>66</v>
@@ -1994,16 +2179,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>66</v>
@@ -2017,16 +2202,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>66</v>
@@ -2040,16 +2225,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>66</v>
@@ -2058,21 +2243,21 @@
       <c r="I8" s="12"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" ht="108" x14ac:dyDescent="0.15">
       <c r="B9" s="7">
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>66</v>
@@ -2086,16 +2271,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>66</v>
@@ -2109,16 +2294,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>66</v>
@@ -2132,16 +2317,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>66</v>
@@ -2155,16 +2340,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>66</v>
@@ -2178,16 +2363,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>66</v>
@@ -2201,16 +2386,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>66</v>
@@ -2224,16 +2409,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>79</v>
-      </c>
       <c r="F16" s="11" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>66</v>
@@ -2247,39 +2432,43 @@
         <v>15</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="F17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="2:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="81" x14ac:dyDescent="0.15">
       <c r="B18" s="7">
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="11"/>
@@ -2289,18 +2478,20 @@
         <v>17</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="11"/>
@@ -2310,18 +2501,20 @@
         <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="11"/>
@@ -2331,83 +2524,109 @@
         <v>19</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="54" x14ac:dyDescent="0.15">
       <c r="B22" s="7">
         <v>20</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="2:10" ht="81" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B23" s="7">
         <v>21</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
+        <v>134</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="202.5" x14ac:dyDescent="0.15">
       <c r="B24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
+      <c r="C24" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="54" x14ac:dyDescent="0.15">
       <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>

--- a/Work/テスト仕様書/テスト仕様書(ねこまっち).xlsx
+++ b/Work/テスト仕様書/テスト仕様書(ねこまっち).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-4FPHGIN.000\Desktop\otherData\pepe_other_file\Work\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816EE60E-A0C8-479C-9C0F-050F35F0D697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E41C0EB-DE92-42C5-92C0-11CE84D63680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="143">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -1177,14 +1177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>message.jsp
-返信ボタンチェック</t>
-    <rPh sb="12" eb="14">
-      <t>ヘンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全ページ
 画面遷移チェック</t>
     <rPh sb="0" eb="1">
@@ -1292,32 +1284,267 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.受信メッセージ欄、送信メッセージ欄のそれぞれ必要な内容が表示されている</t>
+    <t>mypage.jsp
+動作確認</t>
+    <rPh sb="11" eb="15">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.jsp
+エラーメッセージチェック</t>
+    <rPh sb="1" eb="5">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示確認</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.jspでログイン処理を行った際にエラーが発生した場合、Login.jspに戻り、エラーメッセージを表示させる</t>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.Login.jspでエラーメッセージを表示される</t>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registUser.jsp
+エラーメッセージチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.registUser.jspでエラーメッセージが表示される</t>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registUser.jspでユーザー登録処理を行った際にエラーが発生した場合、registUser.jspに戻り、エラーメッセージを表示させる</t>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.jsp
+　エラーメッセージチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示チェック</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.対象のIDを持つネコの情報が存在しない、または削除されている場合はエラーメッセージを表示する</t>
     <rPh sb="2" eb="4">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ラン</t>
-    </rPh>
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registCat.jsp
+エラーメッセージチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.registCat.jspで必要情報を入力する
+2.一部想定されている内容と違う内容を入力</t>
+    <rPh sb="16" eb="20">
+      <t>ヒツヨウジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.registCat.jspに戻り、エラーメッセージを表示する</t>
+    <rPh sb="16" eb="17">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editCat.jsp
+エラーメッセージ、確認メッセージチェック</t>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.editCat.jspで必要情報を入力する
+2.一部想定されている内容と違う内容を入力
+3.「削除する」をクリックした際に確認メッセージを表示させる</t>
+    <rPh sb="14" eb="18">
+      <t>ヒツヨウジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.editCat.jspに戻り、エラーメッセージを表示させる
+2.「削除する」をクリックした際に「本当に削除しますか？」というテキストを表示させる</t>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypage.jsp
+返信ボタンチェック</t>
     <rPh sb="11" eb="13">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.mypage.jsp内の受信メッセージ、送信メッセージをクリック
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.mypage.jsp内の受信メッセージまたは、送信メッセージがある場合はメッセージをクリック
 2.受信メッセージでは受信したメッセージと「ねこ詳細」と「返信する」のボタンがある
 3.送信メッセージでは送信したメッセージと「ネコ詳細」と「削除する」のボタンがある
 4.受信メッセージ、送信メッセージに情報が無ければメッセージはありませんと表示されている</t>
@@ -1327,222 +1554,49 @@
     <rPh sb="14" eb="16">
       <t>ジュシン</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="25" eb="27">
       <t>ソウシン</t>
     </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
       <t>ジュシン</t>
     </rPh>
-    <rPh sb="46" eb="48">
+    <rPh sb="60" eb="62">
       <t>ジュシン</t>
     </rPh>
-    <rPh sb="59" eb="61">
+    <rPh sb="73" eb="75">
       <t>ショウサイ</t>
     </rPh>
-    <rPh sb="64" eb="66">
+    <rPh sb="78" eb="80">
       <t>ヘンシン</t>
     </rPh>
-    <rPh sb="79" eb="81">
+    <rPh sb="93" eb="95">
       <t>ソウシン</t>
     </rPh>
-    <rPh sb="88" eb="90">
+    <rPh sb="102" eb="104">
       <t>ソウシン</t>
     </rPh>
-    <rPh sb="101" eb="103">
+    <rPh sb="115" eb="117">
       <t>ショウサイ</t>
     </rPh>
-    <rPh sb="106" eb="108">
+    <rPh sb="120" eb="122">
       <t>サクジョ</t>
     </rPh>
-    <rPh sb="121" eb="123">
+    <rPh sb="135" eb="137">
       <t>ジュシン</t>
     </rPh>
-    <rPh sb="129" eb="131">
+    <rPh sb="143" eb="145">
       <t>ソウシン</t>
     </rPh>
-    <rPh sb="137" eb="139">
+    <rPh sb="151" eb="153">
       <t>ジョウホウ</t>
     </rPh>
-    <rPh sb="140" eb="141">
+    <rPh sb="154" eb="155">
       <t>ナ</t>
     </rPh>
-    <rPh sb="156" eb="158">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mypage.jsp
-動作確認</t>
-    <rPh sb="11" eb="15">
-      <t>ドウサカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Login.jsp
-エラーメッセージチェック</t>
-    <rPh sb="1" eb="5">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示確認</t>
-    <rPh sb="0" eb="4">
-      <t>ヒョウジカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Login.jspでログイン処理を行った際にエラーが発生した場合、Login.jspに戻り、エラーメッセージを表示させる</t>
-    <rPh sb="14" eb="16">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.Login.jspでエラーメッセージを表示される</t>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>registUser.jsp
-エラーメッセージチェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.registUser.jspでエラーメッセージが表示される</t>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>registUser.jspでユーザー登録処理を行った際にエラーが発生した場合、registUser.jspに戻り、エラーメッセージを表示させる</t>
-    <rPh sb="19" eb="21">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>index.jsp
-　エラーメッセージチェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面表示チェック</t>
-    <rPh sb="0" eb="4">
-      <t>ガメンヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.対象のIDを持つネコの情報が存在しない、または削除されている場合はエラーメッセージを表示する</t>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>registCat.jsp
-エラーメッセージチェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.registCat.jspで必要情報を入力する
-2.一部想定されている内容と違う内容を入力</t>
-    <rPh sb="16" eb="20">
-      <t>ヒツヨウジョウホウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.registCat.jspに戻り、エラーメッセージを表示する</t>
-    <rPh sb="16" eb="17">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="28" eb="30">
+    <rPh sb="170" eb="172">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2059,8 +2113,8 @@
   </sheetPr>
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2139,7 +2193,7 @@
         <v>74</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>69</v>
@@ -2162,7 +2216,7 @@
         <v>74</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>82</v>
@@ -2202,7 +2256,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>73</v>
@@ -2211,7 +2265,7 @@
         <v>90</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>66</v>
@@ -2254,7 +2308,7 @@
         <v>74</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>86</v>
@@ -2277,7 +2331,7 @@
         <v>74</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>87</v>
@@ -2418,7 +2472,7 @@
         <v>78</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>66</v>
@@ -2455,16 +2509,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>110</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>66</v>
@@ -2501,7 +2555,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>74</v>
@@ -2524,13 +2578,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>102</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>114</v>
@@ -2547,16 +2601,16 @@
         <v>20</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>66</v>
@@ -2570,16 +2624,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>102</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>66</v>
@@ -2588,21 +2642,21 @@
       <c r="I23" s="12"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="2:10" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="270" x14ac:dyDescent="0.15">
       <c r="B24" s="7">
         <v>22</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>102</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>66</v>
@@ -2616,29 +2670,41 @@
         <v>23</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="108" x14ac:dyDescent="0.15">
       <c r="B26" s="7"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
+      <c r="C26" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
       <c r="J26" s="11"/>

--- a/Work/テスト仕様書/テスト仕様書(ねこまっち).xlsx
+++ b/Work/テスト仕様書/テスト仕様書(ねこまっち).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-4FPHGIN.000\Desktop\otherData\pepe_other_file\Work\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E41C0EB-DE92-42C5-92C0-11CE84D63680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4426094-0536-4E58-B0D7-C500D7390643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="ひながた" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'テスト項目 (Art)'!$A$1:$K$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'テスト項目 (Art)'!$A$1:$K$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ひながた!$A$1:$K$14</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -650,20 +650,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１．index.jspをMicrosoft Edgeで開く</t>
-    <rPh sb="27" eb="28">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Login.jspに移動できること</t>
-    <rPh sb="10" eb="12">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・2023/9/</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -729,21 +715,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>message.jsp
-マイページ、ログアウトへの画面遷移チェック</t>
-    <rPh sb="25" eb="29">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ドロップダウンメニューから「マイページ」、「ログアウト」を押下</t>
-    <rPh sb="31" eb="33">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面の動作確認</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -751,50 +722,6 @@
     <rPh sb="3" eb="7">
       <t>ドウサカクニン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.対象ねこと送信先ユーザーに情報が入っている
-2.メッセージのテキストボックスに文字が入力できる
-3.メッセージが入力されていないとエラー表示される</t>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ソウシンサキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メッセージ画面中の「送信する」ボタンをクリックする</t>
-    <rPh sb="5" eb="8">
-      <t>ガメンチュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>registUser.jspに移動できること</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -806,13 +733,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>catLists.jspに移動できること</t>
-    <rPh sb="13" eb="15">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>editUser.jsp
 画面表示チェック</t>
     <rPh sb="13" eb="17">
@@ -821,20 +741,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>showCatInfo.jspに移動できること</t>
-    <rPh sb="16" eb="18">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>message.jspへ移動すること</t>
-    <rPh sb="12" eb="14">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>editCat.jsp
 画面表示チェック</t>
     <rPh sb="12" eb="16">
@@ -847,238 +753,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.index.jspのドロップダウンメニューから「ログアウト」をクリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.mypage.jspから「編集する」をクリック</t>
-    <rPh sb="15" eb="17">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.mypage.jspから「編集、削除する」をクリック</t>
-    <rPh sb="15" eb="17">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヘッダーログイン状態時表示内容変更</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ナイヨウヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.index.jspから「ログイン」をクリックし、login.jspでログイン処理を行う
-2.ほかのページでヘッダーのドロップダウンメニューが変更されているか確認</t>
-    <rPh sb="40" eb="42">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ヘッダーのドロップダウンメニューが全ページ変更されている</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>showCatInfo.jsp
-ログイン状態でない場合の画面表示チェック</t>
-    <rPh sb="20" eb="22">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>ガメンヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ログイン状態でなければ「メッセージを送る」の下に「メッセージを送る際はログインしてください」と表示
-2.「メッセージを送る」をクリックした時と「メッセージを送る際はログインしてください」を押した際Login.jspに遷移する</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.showCatInfo.jsp内の情報が変更されている
-2.Login.jspに移動できる</t>
-    <rPh sb="17" eb="18">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.editUser.jspに移動すること
-2.editUser.jsp内に取得してきたユーザー情報が入っている</t>
-    <rPh sb="15" eb="17">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.editCat.jspに移動すること
-2.editCat.jsp内に取得してきたネコ情報が入っている</t>
-    <rPh sb="14" eb="16">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ExeDelMessage.java起動確認</t>
-    <rPh sb="18" eb="22">
-      <t>キドウカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>動作確認</t>
     <rPh sb="0" eb="4">
       <t>ドウサカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.mypage.jspで送信したメッセージの横にある「削除」ボタンをクリック
-2.mypage.jspに戻った際に削除が失敗していた際にエラーメッセージを表示する</t>
-    <rPh sb="13" eb="15">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.messagesテーブルのカラム「DEL」が1になっている
-2.削除の際にエラーがあった場合mypage.jspでエラーメッセージが表示される</t>
-    <rPh sb="34" eb="36">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1091,13 +768,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.mypage.jspから「返信」をクリック</t>
-    <rPh sb="15" eb="17">
-      <t>ヘンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mypage.jsp
 画面表示チェック</t>
     <rPh sb="11" eb="13">
@@ -1109,133 +779,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mypage.jspに移動できること</t>
-    <rPh sb="11" eb="13">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１.index.jspの「性別」を選択するラジオボタンで検索条件を選択する。
-「まっちんぐ」ボタンをクリックする</t>
-    <rPh sb="13" eb="15">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>ケンサクジョウケン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>index.jspの「IDまっち」でネコのIDを入力し「まっちんぐ」ボタンをクリック</t>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>registCat.jspに移動できる</t>
-    <rPh sb="14" eb="16">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.取得してきたメッセージ情報が表示されている</t>
-    <rPh sb="2" eb="4">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.mypage.jspから「ネコ情報を登録する」をクリック</t>
-    <rPh sb="17" eb="19">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.index.jspに移動すること</t>
-    <rPh sb="12" eb="14">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全ページ
-画面遷移チェック</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全ページの上部にあるロゴをクリック</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.showCatInfo.jspの「メッセージを送る」をクリック
-2.mypage.jspの受信メッセージから「返信」ボタンをクリック</t>
-    <rPh sb="25" eb="26">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ヘンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.catLists.jsp内のネコの情報をクリック
-2.mypage.jspの「ネコ詳細」をクリック
-3.index.jspの「IDまっちんぐ」内のテキストボックスに検索したいIDを入力後「まっちんぐ」をクリック</t>
-    <rPh sb="14" eb="15">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="92" eb="95">
-      <t>ニュウリョクゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>logout.html
 画面表示チェック</t>
     <rPh sb="12" eb="14">
@@ -1247,43 +790,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.index.jspのドロップダウンメニューから「ログイン」をクリック
-2.registUser.jsp内の「ログインはこちら」をクリック</t>
-    <rPh sb="53" eb="54">
-      <t>ナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.index.jspのドロップダウンメニューから「新規登録」をクリック
-2.Login.jsp内の「新規登録はこちら」をクリック</t>
-    <rPh sb="48" eb="49">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="51" eb="55">
-      <t>シンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>logout.htmlに移動できること</t>
-    <rPh sb="12" eb="14">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.mypage.jspに移動できること
-2.logout.htmlに移動できること</t>
-    <rPh sb="13" eb="15">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mypage.jsp
 動作確認</t>
     <rPh sb="11" eb="15">
@@ -1292,126 +798,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Login.jsp
-エラーメッセージチェック</t>
-    <rPh sb="1" eb="5">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示確認</t>
     <rPh sb="0" eb="4">
       <t>ヒョウジカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Login.jspでログイン処理を行った際にエラーが発生した場合、Login.jspに戻り、エラーメッセージを表示させる</t>
-    <rPh sb="14" eb="16">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.Login.jspでエラーメッセージを表示される</t>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>registUser.jsp
-エラーメッセージチェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.registUser.jspでエラーメッセージが表示される</t>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>registUser.jspでユーザー登録処理を行った際にエラーが発生した場合、registUser.jspに戻り、エラーメッセージを表示させる</t>
-    <rPh sb="19" eb="21">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>index.jsp
-　エラーメッセージチェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面表示チェック</t>
-    <rPh sb="0" eb="4">
-      <t>ガメンヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.対象のIDを持つネコの情報が存在しない、または削除されている場合はエラーメッセージを表示する</t>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1464,82 +853,6 @@
 エラーメッセージ、確認メッセージチェック</t>
     <rPh sb="21" eb="23">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.editCat.jspで必要情報を入力する
-2.一部想定されている内容と違う内容を入力
-3.「削除する」をクリックした際に確認メッセージを表示させる</t>
-    <rPh sb="14" eb="18">
-      <t>ヒツヨウジョウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.editCat.jspに戻り、エラーメッセージを表示させる
-2.「削除する」をクリックした際に「本当に削除しますか？」というテキストを表示させる</t>
-    <rPh sb="14" eb="15">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ホントウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mypage.jsp
-返信ボタンチェック</t>
-    <rPh sb="11" eb="13">
-      <t>ヘンシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1598,6 +911,1680 @@
     </rPh>
     <rPh sb="170" eb="172">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.editCat.jspで必要情報を入力する
+2.一部想定されている内容と違う内容を入力
+3.「削除する」をクリックした際に確認メッセージを表示させる
+4.入力フォームに一部入力せずに更新をクリックする</t>
+    <rPh sb="14" eb="18">
+      <t>ヒツヨウジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.editCat.jspに戻り、エラーメッセージを表示させる
+2.「削除する」をクリックした際に「本当に削除しますか？」というテキストを表示させる
+3.「更新する」をクリックした際に入力フォームに空きがある場合「入力できていないフォームがあります」というエラーメッセージを表示させる
+4.画像データを挿入するフォームに更新する画像を挿入していない状態で「更新する」をクリックした際に「画像を選択してください」というメッセージを表示させる</t>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ画面の動作確認</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.jsp
+ナビゲーションバー表示確認</t>
+    <rPh sb="19" eb="23">
+      <t>ヒョウジカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未ログイン時のナビゲーションバーの表示確認</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ヒョウジカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未ログイン時、ナビゲーションバーが「未ログイン」と表示されている</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１.トップページを開く
+2.トップページのナビゲーションバー内の「ログイン」をクリックする
+3.新規ユーザー登録画面内の「ログインはこちら」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/PepeOhana/index.jspをMicrosoft Edgeで開く（以降トップページを開くと記載する）</t>
+    <rPh sb="57" eb="58">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.jsp
+動作確認</t>
+    <rPh sb="10" eb="14">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォームの動作確認、画面遷移チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.トップページのナビゲーションバー内の「ログイン」をクリックする
+3.入力フォームにユーザーIDとパスワードを入力
+4.「ログイン」ボタンをクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ユーザー登録画面表示の動作確認</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registUser.jsp
+動作確認</t>
+    <rPh sb="15" eb="19">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ユーザー登録画面の動作確認、画面遷移チェック</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.トップページのナビゲーションバー内の「新規ユーザー登録」をクリック
+3.トップページのナビゲーションバー内の「ログイン」をクリック
+4.ログイン画面内の「新規登録はこちら」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="91" eb="95">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.トップページのナビゲーションバー内の「新規ユーザー登録」をクリック
+3.入力フォームにユーザーID、ユーザー名、パスワードを入力する
+4.新規登録をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面に移動できること</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン状態時のナビゲーションバーの表示確認</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ヒョウジカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.トップページのナビゲーションバーの内容が変更されているか確認</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１.トップページを開く
+2.ログイン処理を行う
+3.トップページのナビゲーションバー内の「マイページ」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout.html
+確認メッセージチェック</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移前の動作確認</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.トップページのナビゲーションバー内の「ログアウト」をクリック
+4.確認メッセージ内の「OK」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果一覧表示画面に移動できること</t>
+    <rPh sb="0" eb="6">
+      <t>ケンサクケッカイチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.トップページの条件まっちの検索フォームから性別を選択（男の子女の子両方選択可）後「まっちんぐ」をクリック
+3.検索結果一覧表示画面に表示されているネコ情報をクリック
+4.トップページのIDまっちの検索フォームでIDを入力後「まっちんぐ」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>センタクカ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="69" eb="75">
+      <t>ケンサクケッカイチラン</t>
+    </rPh>
+    <rPh sb="75" eb="79">
+      <t>ヒョウジガメン</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="122" eb="125">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.トップページの条件まっちの検索フォームで性別を選択（男の子女の子両方選択可）後「まっちんぐ」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>センタクカ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねこ情報詳細表示画面に移動できること</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="10">
+      <t>ショウサイヒョウジガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.jsp
+エラーメッセージ表示チェック</t>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージの表示確認</t>
+    <rPh sb="9" eb="13">
+      <t>ヒョウジカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.トップページのIDまっちの検索フォームで削除済のIDを入力後「まっちんぐ」をクリック
+3.IDまっちの検索フォームでねこ情報が登録されていないIDを入力後「まっちんぐ」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページのIDまっちの検索フォームでエラーメッセージが表示されている</t>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showCatInfo.jsp
+表示内容チェック</t>
+    <rPh sb="16" eb="20">
+      <t>ヒョウジナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.未ログイン状態時にIDまっちの検索フォームで検索する
+3.ログイン状態時にIDまっちの検索フォームで検索する</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ジョウタイジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>ジョウタイジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.jsp
+ナビゲーションバー表示確認</t>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ナビゲーションバーをクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビゲーションバー内が「ログイン」と「新規ユーザー登録」の二つが表示されている</t>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ユーザー登録画面に移動できること</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した内容とデータベースに登録されているユーザー情報が一致しない場合にログイン画面に戻りエラーメッセージを表示させる</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインIDとパスワードを各入力フォームに入力できる</t>
+    <rPh sb="13" eb="16">
+      <t>カクニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビゲーションバーがユーザー名が表示されるように変更されている</t>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビゲーションバー内の内容が「マイページ」と「ログアウト」に変更されている</t>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">マイページ画面に移動できる
+</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ユーザー登録画面の動作確認</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各フォームに入力できる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した内容が既にデータベースに登録されている場合、新規ユーザー登録画面にもどりエラーメッセージを表示させる</t>
+  </si>
+  <si>
+    <t>ユーザー登録が成功した場合、ログイン画面へ遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.トップページのナビゲーションバー内の「新規ユーザー登録」をクリック
+3.入力フォームにユーザーID、ユーザー名、パスワードを入力する</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ログアウト完了画面に移動できる
+</t>
+    <rPh sb="5" eb="9">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンクリック後確認メッセージが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン状態時での表示内容の変更確認</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ヒョウジナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ヘンコウカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未ログイン状態時での表示内容の変更確認</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ヒョウジナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ヘンコウカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.IDまっちの検索フォームで検索する</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「メッセージを送信する」の下部に「メッセージを送る場合はログインしてください」と表示している</t>
+    <rPh sb="7" eb="9">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未ログイン状態時での表示内容の画面遷移確認</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ヒョウジナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面へ移動できる</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.未ログイン状態時にIDまっちの検索フォームで検索する
+3.ログイン状態時にIDまっちの検索フォームで検索する
+4.「メッセージを送信する」または「メッセージを送る場合はログインしてください」のどちらかをクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ジョウタイジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>ジョウタイジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「メッセージを送信する」のみが表示されている</t>
+    <rPh sb="7" eb="9">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.ナビゲーションバーの「マイページ」からマイページ画面へ移動する
+4.マイページ画面のユーザー情報テーブルの「編集する」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報編集画面へ移動する</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォームに登録した内容が反映されている</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editUser.jsp
+動作確認</t>
+    <rPh sb="13" eb="15">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editUser.jsp
+動作確認</t>
+    <rPh sb="13" eb="17">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した内容が既にデータベースに登録されている場合、ユーザー情報編集画面にもどりエラーメッセージを表示させる</t>
+    <rPh sb="30" eb="32">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.マイページ画面へ移動する
+4.マイページ画面のユーザー情報テーブルの「編集する」をクリック
+5.更新するユーザー情報を入力フォームに入力後「更新する」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="92" eb="95">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.マイページ画面へ移動する
+4.マイページ画面の「ねこ情報を登録する」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねこ情報登録画面へ移動する</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示の動作確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.マイページ画面へ移動する
+4.マイページ画面の「ねこ情報を登録する」をクリック
+5.各入力フォームにネコ情報を入力
+6.「登録する」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.マイページ画面へ移動する
+4.ねこ情報登録画面からねこ情報登録する
+5.マイページ画面のネコ情報テーブルにある「編集、削除する」ボタンをクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="43" eb="49">
+      <t>ジョウホウトウロクガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypage.jsp
+画面表示チェック</t>
+    <rPh sb="11" eb="15">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.マイページ画面へ移動する
+4.マイページ画面の「ねこ情報を登録する」をクリック
+5.各入力フォームにネコ情報を入力
+6.「登録する」をクリック
+7.マイページ画面のネコ情報テーブルを確認</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録したネコ情報がマイページ画面で表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネコ情報編集画面へ移動する</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースの登録の際にエラーが発生した場合、または入力必須項目に未入力があった場合はネコ情報登録画面に戻り、エラーメッセージを表示させる</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ヒッスコウモク</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.マイページ画面へ移動する
+4.ねこ情報登録画面からねこ情報登録する
+5.マイページ画面のネコ情報テーブルにある「編集、削除する」ボタンをクリック
+6.入力フォームにネコ情報を入力する
+7.「更新する」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="43" eb="49">
+      <t>ジョウホウトウロクガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.マイページ画面へ移動する
+4.ねこ情報登録画面からねこ情報登録する
+5.マイページ画面のネコ情報テーブルにある「編集、削除する」ボタンをクリック
+6.「削除する」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="43" eb="49">
+      <t>ジョウホウトウロクガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録したネコ情報を削除処理した後、マイページ画面へ移動する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>サクジョショリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.IDまっちの検索フォームで検索する
+4.「メッセージを送る」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ投稿画面へ移動する</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォームに入力できる</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1609,7 +2596,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1639,6 +2626,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1660,7 +2656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1683,13 +2679,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1729,8 +2739,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -2042,7 +3068,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
@@ -2111,10 +3137,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:J33"/>
+  <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2159,7 +3185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -2167,10 +3193,10 @@
         <v>67</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>68</v>
+        <v>93</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>40</v>
@@ -2182,21 +3208,21 @@
       <c r="I3" s="12"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10" ht="54" x14ac:dyDescent="0.15">
       <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>120</v>
+        <v>95</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>66</v>
@@ -2209,17 +3235,17 @@
       <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>82</v>
+      <c r="C5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>66</v>
@@ -2228,21 +3254,21 @@
       <c r="I5" s="12"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>66</v>
@@ -2251,48 +3277,44 @@
       <c r="I6" s="12"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B7" s="7">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>66</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10" ht="108" x14ac:dyDescent="0.15">
       <c r="B8" s="7">
         <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>66</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="11"/>
@@ -2302,16 +3324,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>86</v>
+        <v>106</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>66</v>
@@ -2320,21 +3342,21 @@
       <c r="I9" s="12"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>87</v>
+      <c r="C10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>66</v>
@@ -2343,44 +3365,42 @@
       <c r="I10" s="12"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10" ht="108" x14ac:dyDescent="0.15">
       <c r="B11" s="7">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="D11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10" ht="108" x14ac:dyDescent="0.15">
       <c r="B12" s="7">
         <v>10</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="C12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>100</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>66</v>
@@ -2389,44 +3409,42 @@
       <c r="I12" s="12"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="81" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B13" s="7">
         <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>66</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G13" s="10"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B14" s="7">
         <v>12</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>66</v>
@@ -2435,21 +3453,21 @@
       <c r="I14" s="12"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="2:10" ht="108" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B15" s="7">
         <v>13</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>66</v>
@@ -2458,44 +3476,42 @@
       <c r="I15" s="12"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="2:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B16" s="7">
         <v>14</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>66</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G16" s="10"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B17" s="7">
         <v>15</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>81</v>
+        <v>112</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>66</v>
@@ -2509,39 +3525,37 @@
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>110</v>
+        <v>72</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>66</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G18" s="10"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="162" x14ac:dyDescent="0.15">
       <c r="B19" s="7">
         <v>17</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>66</v>
@@ -2550,21 +3564,21 @@
       <c r="I19" s="12"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B20" s="7">
         <v>18</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>74</v>
+      <c r="C20" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>66</v>
@@ -2573,21 +3587,21 @@
       <c r="I20" s="12"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B21" s="7">
         <v>19</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>66</v>
@@ -2596,67 +3610,63 @@
       <c r="I21" s="12"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="2:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B22" s="7">
         <v>20</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>66</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G22" s="10"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="54" x14ac:dyDescent="0.15">
       <c r="B23" s="7">
         <v>21</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>66</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G23" s="10"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="2:10" ht="270" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="108" x14ac:dyDescent="0.15">
       <c r="B24" s="7">
         <v>22</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>66</v>
@@ -2665,21 +3675,21 @@
       <c r="I24" s="12"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="2:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="108" x14ac:dyDescent="0.15">
       <c r="B25" s="7">
         <v>23</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>66</v>
@@ -2689,117 +3699,440 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="2:10" ht="108" x14ac:dyDescent="0.15">
-      <c r="B26" s="7"/>
+      <c r="B26" s="7">
+        <v>24</v>
+      </c>
       <c r="C26" s="11" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="7"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
+    <row r="27" spans="2:10" ht="135" x14ac:dyDescent="0.15">
+      <c r="B27" s="7">
+        <v>25</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="7"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
+    <row r="28" spans="2:10" ht="81" x14ac:dyDescent="0.15">
+      <c r="B28" s="7">
+        <v>26</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="7"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
+    <row r="29" spans="2:10" ht="81" x14ac:dyDescent="0.15">
+      <c r="B29" s="7">
+        <v>27</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="7"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
+    <row r="30" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="7">
+        <v>28</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="7"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
+    <row r="31" spans="2:10" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="7">
+        <v>29</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="7"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+    <row r="32" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="7">
+        <v>30</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="7"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+    <row r="33" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="7">
+        <v>31</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="2:10" ht="162" x14ac:dyDescent="0.15">
+      <c r="B34" s="7">
+        <v>32</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="2:10" ht="135" x14ac:dyDescent="0.15">
+      <c r="B35" s="7">
+        <v>33</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="2:10" ht="81" x14ac:dyDescent="0.15">
+      <c r="B36" s="7">
+        <v>34</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="2:10" ht="81" x14ac:dyDescent="0.15">
+      <c r="B37" s="7">
+        <v>21</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="2:10" ht="270" x14ac:dyDescent="0.15">
+      <c r="B38" s="7">
+        <v>22</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="2:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="B39" s="7">
+        <v>23</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="2:10" ht="324" x14ac:dyDescent="0.15">
+      <c r="B40" s="7"/>
+      <c r="C40" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="7"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="7"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="7"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B44" s="7"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="7"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B46" s="7"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B47" s="7"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G3:G31">
+  <conditionalFormatting sqref="G3:G45">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G31" xr:uid="{1A508B39-2A7A-4E5F-975E-7BA9A957944C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G45" xr:uid="{1A508B39-2A7A-4E5F-975E-7BA9A957944C}">
       <formula1>" ,合格,不合格,-"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{43F5E0D8-55FC-4A24-ABAF-D62113057575}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Work/テスト仕様書/テスト仕様書(ねこまっち).xlsx
+++ b/Work/テスト仕様書/テスト仕様書(ねこまっち).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-4FPHGIN.000\Desktop\otherData\pepe_other_file\Work\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4426094-0536-4E58-B0D7-C500D7390643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5FDA42-551E-40B5-950A-58B1C06823B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="ひながた" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'テスト項目 (Art)'!$A$1:$K$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'テスト項目 (Art)'!$A$1:$K$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ひながた!$A$1:$K$14</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="190">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -676,19 +676,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面遷移の動作確認</t>
-    <rPh sb="0" eb="4">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面表示の動作確認</t>
     <rPh sb="0" eb="4">
       <t>ガメンヒョウジ</t>
@@ -749,17 +736,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１.index.jspのドロップダウンメニューから「マイページ」をクリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動作確認</t>
-    <rPh sb="0" eb="4">
-      <t>ドウサカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>registCat.jsp
 画面表示チェック</t>
     <rPh sb="14" eb="18">
@@ -774,279 +750,6 @@
       <t>ガメン</t>
     </rPh>
     <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>logout.html
-画面表示チェック</t>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mypage.jsp
-動作確認</t>
-    <rPh sb="11" eb="15">
-      <t>ドウサカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示確認</t>
-    <rPh sb="0" eb="4">
-      <t>ヒョウジカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>registCat.jsp
-エラーメッセージチェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.registCat.jspで必要情報を入力する
-2.一部想定されている内容と違う内容を入力</t>
-    <rPh sb="16" eb="20">
-      <t>ヒツヨウジョウホウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.registCat.jspに戻り、エラーメッセージを表示する</t>
-    <rPh sb="16" eb="17">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>editCat.jsp
-エラーメッセージ、確認メッセージチェック</t>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.mypage.jsp内の受信メッセージまたは、送信メッセージがある場合はメッセージをクリック
-2.受信メッセージでは受信したメッセージと「ねこ詳細」と「返信する」のボタンがある
-3.送信メッセージでは送信したメッセージと「ネコ詳細」と「削除する」のボタンがある
-4.受信メッセージ、送信メッセージに情報が無ければメッセージはありませんと表示されている</t>
-    <rPh sb="12" eb="13">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ヘンシン</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.editCat.jspで必要情報を入力する
-2.一部想定されている内容と違う内容を入力
-3.「削除する」をクリックした際に確認メッセージを表示させる
-4.入力フォームに一部入力せずに更新をクリックする</t>
-    <rPh sb="14" eb="18">
-      <t>ヒツヨウジョウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.editCat.jspに戻り、エラーメッセージを表示させる
-2.「削除する」をクリックした際に「本当に削除しますか？」というテキストを表示させる
-3.「更新する」をクリックした際に入力フォームに空きがある場合「入力できていないフォームがあります」というエラーメッセージを表示させる
-4.画像データを挿入するフォームに更新する画像を挿入していない状態で「更新する」をクリックした際に「画像を選択してください」というメッセージを表示させる</t>
-    <rPh sb="14" eb="15">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ホントウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>ソウニュウ</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>ソウニュウ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="178" eb="180">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="190" eb="191">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="193" eb="195">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="196" eb="198">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="214" eb="216">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1347,19 +1050,6 @@
 確認メッセージチェック</t>
     <rPh sb="12" eb="14">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面遷移前の動作確認</t>
-    <rPh sb="0" eb="4">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>ドウサカクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2585,6 +2275,763 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.IDまっちの検索フォームで検索する
+4.「メッセージを送る」をクリック
+5.入力フォームに入力する</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.IDまっちの検索フォームで検索する
+4.「メッセージを送る」をクリック
+5.入力フォームに入力する
+6.「送信する」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ投稿が行われ、マイページ画面へ移動する</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.ナビゲーションバーの「マイページ」からマイページ画面へ移行する
+4.受信メッセージテーブルの「返信する」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message.jsp
+画面表示チェック</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ返信画面へ移動する</t>
+    <rPh sb="5" eb="9">
+      <t>ヘンシンガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受信メッセージ欄に受信したメッセージが表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.ナビゲーションバーの「マイページ」からマイページ画面へ移行する
+4.受信メッセージテーブルの「返信する」をクリック
+5.入力フォームに入力する</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.ナビゲーションバーの「マイページ」からマイページ画面へ移行する
+4.受信メッセージテーブルの「返信する」をクリック
+5.入力フォームに入力する
+6.「送信する」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.ナビゲーションバーの「マイページ」からマイページ画面へ移行する
+4.受信メッセージテーブルの「返信する」をクリック
+5.入力フォームに入力せずに「送信する」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ送信画面に戻り、エラーメッセージを表示させる</t>
+    <rPh sb="5" eb="9">
+      <t>ソウシンガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ画面の動作確認</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移前の動作確認</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout.html
+画面遷移チェック</t>
+    <rPh sb="12" eb="16">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移の動作確認</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報編集画面の表示確認</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォームの表示確認</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.マイページ画面へ移動する
+4.マイページ画面のユーザー情報テーブルの「編集する」をクリック
+5.入力フォームに未入力の部分がある状態で「更新する」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移せず、エラーメッセージを表示させる</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.マイページ画面へ移動する
+4.マイページ画面の「ねこ情報を登録する」をクリック
+5.入力フォームにネコ情報がすべて入力された状態でない時に「登録する」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.マイページ画面へ移動する
+4.ねこ情報登録画面からねこ情報登録する
+5.マイページ画面のネコ情報テーブルにある「編集、削除する」ボタンをクリック
+6.入力フォームにネコ情報が未入力がある状態で「更新する」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="43" eb="49">
+      <t>ジョウホウトウロクガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="113" eb="116">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.IDまっちの検索フォームで検索する
+4.「メッセージを送る」をクリック
+5.入力フォームに未入力がある状態で「送信する」をクリック</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降同一操作はトップページを開くと記載</t>
+    <rPh sb="0" eb="2">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ドウイツソウサ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降同一操作はユーザー情報登録と記載</t>
+    <rPh sb="0" eb="2">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ドウイツソウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降同一操作はログイン処理と記載</t>
+    <rPh sb="0" eb="2">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ドウイツソウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページのメッセージテーブル内の送信メッセージ欄に登録したメッセージが表示されている</t>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.IDまっちの検索フォームで検索する
+4.「メッセージを送る」をクリック
+5.入力フォームに入力する
+6.「送信する」をクリック
+7.マイページのメッセージテーブル内の送信メッセージ欄を確認する</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.ナビゲーションバーの「マイページ」からマイページ画面へ移動する
+4.送信メッセージ欄のメッセージをクリックし、削除するをクリックする</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信したメッセージが削除され、マイページ画面へ移動する</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認メッセージの表示</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トップページを開く
+2.ログイン処理を行う
+3.ナビゲーションバーの「マイページ」からマイページ画面へ移動する
+4.送信メッセージ欄のメッセージをクリックし、削除するをクリックする
+5.確認メッセージ内のOKをクリックする</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ナイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2699,7 +3146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2745,13 +3192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3137,10 +3578,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:J47"/>
+  <dimension ref="B2:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3193,10 +3634,10 @@
         <v>67</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>40</v>
@@ -3204,31 +3645,41 @@
       <c r="G3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="11"/>
+      <c r="H3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="12">
+        <v>45215</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="4" spans="2:10" ht="54" x14ac:dyDescent="0.15">
       <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>126</v>
+        <v>82</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="12">
+        <v>45215</v>
+      </c>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
@@ -3236,22 +3687,26 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>125</v>
+        <v>82</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="12">
+        <v>45215</v>
+      </c>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
@@ -3262,40 +3717,52 @@
         <v>70</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="11"/>
+      <c r="H6" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="12">
+        <v>45215</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B7" s="7">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="12">
+        <v>45215</v>
+      </c>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="2:10" ht="108" x14ac:dyDescent="0.15">
@@ -3303,20 +3770,26 @@
         <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+        <v>122</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="12">
+        <v>45215</v>
+      </c>
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="2:10" ht="108" x14ac:dyDescent="0.15">
@@ -3324,22 +3797,26 @@
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" s="12">
+        <v>45215</v>
+      </c>
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="2:10" ht="94.5" x14ac:dyDescent="0.15">
@@ -3350,40 +3827,52 @@
         <v>69</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="11"/>
+      <c r="H10" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="12">
+        <v>45215</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="108" x14ac:dyDescent="0.15">
       <c r="B11" s="7">
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="12">
+        <v>45215</v>
+      </c>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="2:10" ht="108" x14ac:dyDescent="0.15">
@@ -3391,22 +3880,26 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="12">
+        <v>45215</v>
+      </c>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
@@ -3414,20 +3907,26 @@
         <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+        <v>117</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="12">
+        <v>45215</v>
+      </c>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
@@ -3435,22 +3934,26 @@
         <v>12</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="12">
+        <v>45215</v>
+      </c>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
@@ -3458,22 +3961,26 @@
         <v>13</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="H15" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="12">
+        <v>45215</v>
+      </c>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="2:10" ht="94.5" x14ac:dyDescent="0.15">
@@ -3481,20 +3988,26 @@
         <v>14</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="12">
+        <v>45215</v>
+      </c>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="2:10" ht="94.5" x14ac:dyDescent="0.15">
@@ -3502,22 +4015,26 @@
         <v>15</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="12">
+        <v>45215</v>
+      </c>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="2:10" ht="81" x14ac:dyDescent="0.15">
@@ -3525,20 +4042,26 @@
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I18" s="12">
+        <v>45215</v>
+      </c>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="2:10" ht="162" x14ac:dyDescent="0.15">
@@ -3546,22 +4069,26 @@
         <v>17</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="H19" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="12">
+        <v>45215</v>
+      </c>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
@@ -3569,22 +4096,26 @@
         <v>18</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="H20" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="12">
+        <v>45215</v>
+      </c>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="2:10" ht="94.5" x14ac:dyDescent="0.15">
@@ -3592,22 +4123,26 @@
         <v>19</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="H21" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="12">
+        <v>45215</v>
+      </c>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="2:10" ht="148.5" x14ac:dyDescent="0.15">
@@ -3615,20 +4150,26 @@
         <v>20</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+        <v>132</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" s="12">
+        <v>45215</v>
+      </c>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="2:10" ht="54" x14ac:dyDescent="0.15">
@@ -3636,20 +4177,26 @@
         <v>21</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" s="12">
+        <v>45215</v>
+      </c>
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="2:10" ht="108" x14ac:dyDescent="0.15">
@@ -3657,22 +4204,26 @@
         <v>22</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="H24" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="12">
+        <v>45215</v>
+      </c>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="2:10" ht="108" x14ac:dyDescent="0.15">
@@ -3680,22 +4231,26 @@
         <v>23</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="H25" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="12">
+        <v>45215</v>
+      </c>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="2:10" ht="108" x14ac:dyDescent="0.15">
@@ -3703,22 +4258,26 @@
         <v>24</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="H26" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" s="12">
+        <v>45215</v>
+      </c>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="2:10" ht="135" x14ac:dyDescent="0.15">
@@ -3726,405 +4285,685 @@
         <v>25</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="H27" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I27" s="12">
+        <v>45215</v>
+      </c>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="2:10" ht="81" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="135" x14ac:dyDescent="0.15">
       <c r="B28" s="7">
         <v>26</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="H28" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" s="12">
+        <v>45215</v>
+      </c>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="2:10" ht="81" x14ac:dyDescent="0.15">
       <c r="B29" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="H29" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="12">
+        <v>45215</v>
+      </c>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="81" x14ac:dyDescent="0.15">
       <c r="B30" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="H30" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="12">
+        <v>45215</v>
+      </c>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="2:10" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B31" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="H31" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I31" s="12">
+        <v>45215</v>
+      </c>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="135" x14ac:dyDescent="0.15">
       <c r="B32" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>78</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I32" s="12">
+        <v>45215</v>
+      </c>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B33" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+      <c r="H33" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="12">
+        <v>45215</v>
+      </c>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="2:10" ht="162" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B34" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="H34" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I34" s="12">
+        <v>45215</v>
+      </c>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="2:10" ht="135" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B35" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="H35" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" s="12">
+        <v>45215</v>
+      </c>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="2:10" ht="81" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="162" x14ac:dyDescent="0.15">
       <c r="B36" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+      <c r="H36" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I36" s="12">
+        <v>45215</v>
+      </c>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="2:10" ht="81" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="162" x14ac:dyDescent="0.15">
       <c r="B37" s="7">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+      <c r="H37" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I37" s="12">
+        <v>45215</v>
+      </c>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="2:10" ht="270" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="135" x14ac:dyDescent="0.15">
       <c r="B38" s="7">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="H38" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I38" s="12">
+        <v>45215</v>
+      </c>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="2:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="81" x14ac:dyDescent="0.15">
       <c r="B39" s="7">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="H39" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" s="12">
+        <v>45215</v>
+      </c>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="2:10" ht="324" x14ac:dyDescent="0.15">
-      <c r="B40" s="7"/>
+    <row r="40" spans="2:10" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B40" s="7">
+        <v>37</v>
+      </c>
       <c r="C40" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="12"/>
+      <c r="H40" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I40" s="12">
+        <v>45215</v>
+      </c>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="7"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="12"/>
+    <row r="41" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B41" s="7">
+        <v>38</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I41" s="12">
+        <v>45215</v>
+      </c>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="7"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="12"/>
+    <row r="42" spans="2:10" ht="108" x14ac:dyDescent="0.15">
+      <c r="B42" s="7">
+        <v>39</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I42" s="12">
+        <v>45215</v>
+      </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B43" s="7"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="12"/>
+      <c r="C43" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I43" s="12">
+        <v>45215</v>
+      </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="7"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="12"/>
+    <row r="44" spans="2:10" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B44" s="7">
+        <v>40</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I44" s="12">
+        <v>45215</v>
+      </c>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="7"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="12"/>
+    <row r="45" spans="2:10" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B45" s="7">
+        <v>41</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" s="12">
+        <v>45215</v>
+      </c>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="7"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+    <row r="46" spans="2:10" ht="108" x14ac:dyDescent="0.15">
+      <c r="B46" s="7">
+        <v>42</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I46" s="12">
+        <v>45215</v>
+      </c>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="7"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+    <row r="47" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B47" s="7">
+        <v>43</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I47" s="12">
+        <v>45215</v>
+      </c>
       <c r="J47" s="11"/>
+    </row>
+    <row r="48" spans="2:10" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B48" s="7">
+        <v>44</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I48" s="12">
+        <v>45215</v>
+      </c>
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="2:10" ht="108" x14ac:dyDescent="0.15">
+      <c r="B49" s="7"/>
+      <c r="C49" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I49" s="12">
+        <v>45215</v>
+      </c>
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="2:10" ht="135" x14ac:dyDescent="0.15">
+      <c r="B50" s="7"/>
+      <c r="C50" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I50" s="12">
+        <v>45215</v>
+      </c>
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B51" s="7"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B52" s="7"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B53" s="7"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G3:G45">
+  <conditionalFormatting sqref="G3:G51">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G45" xr:uid="{1A508B39-2A7A-4E5F-975E-7BA9A957944C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G51" xr:uid="{1A508B39-2A7A-4E5F-975E-7BA9A957944C}">
       <formula1>" ,合格,不合格,-"</formula1>
     </dataValidation>
   </dataValidations>
